--- a/python_for_excel/1-python-in-excel-first-steps/exercise/python-excel-first-steps-exercise-solutions.xlsx
+++ b/python_for_excel/1-python-in-excel-first-steps/exercise/python-excel-first-steps-exercise-solutions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27204"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\python-powered-excel\1-python-in-excel-first-steps\exercise\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\xlgs-2024-analytics-2_0\python_for_excel\1-python-in-excel-first-steps\exercise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D86A9497-08AA-4DB2-A8D9-E0B35C789F81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DED1FECD-3DE5-4E40-8D1F-4E1CECDA20A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="16395" xr2:uid="{0D981583-3AC3-451C-AD61-645D383C35BB}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="16395" xr2:uid="{0D981583-3AC3-451C-AD61-645D383C35BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -80,6 +80,28 @@
     </bk>
   </valueMetadata>
 </metadata>
+</file>
+
+<file path=xl/python.xml><?xml version="1.0" encoding="utf-8"?>
+<python xmlns="http://schemas.microsoft.com/office/spreadsheetml/2023/python">
+  <environmentDefinition id="{00000000-0000-0000-0000-000000000000}">
+    <initialization>
+      <code/>
+    </initialization>
+  </environmentDefinition>
+  <pythonScripts>
+    <pythonScript>
+      <code>penguins_df = xl(%P2%, headers=True)
+penguins_df</code>
+    </pythonScript>
+    <pythonScript>
+      <code>penguins_df.columns</code>
+    </pythonScript>
+    <pythonScript>
+      <code>sns.scatterplot(x='bill_length_mm', y='body_mass_g', data=penguins_df)</code>
+    </pythonScript>
+  </pythonScripts>
+</python>
 </file>
 
 <file path=xl/pythonScripts.xml><?xml version="1.0" encoding="utf-8"?>
@@ -797,8 +819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01C59FBE-C1CC-42BE-B162-F54769FD95AA}">
   <dimension ref="A1:I345"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H2" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="34.15" outlineLevelCol="1" x14ac:dyDescent="1.05"/>
